--- a/docentes/Martínez López Miguel Ángel - Estadisticos 20211.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
   <si>
     <t>Mat</t>
   </si>
@@ -74,6 +74,33 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>LUIS YAEL</t>
+  </si>
+  <si>
+    <t>DENISSE MERARY</t>
+  </si>
+  <si>
+    <t>ESTHER ARISBETH</t>
   </si>
 </sst>
 </file>
@@ -782,7 +809,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -815,6 +842,75 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Martínez López Miguel Ángel - Estadisticos 20211.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>Mat</t>
   </si>
@@ -79,28 +79,37 @@
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
     <t>NAVARRO</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
     <t>GUERRA</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>LUIS YAEL</t>
   </si>
   <si>
+    <t>KAREN</t>
+  </si>
+  <si>
+    <t>ESTHER ARISBETH</t>
+  </si>
+  <si>
     <t>DENISSE MERARY</t>
-  </si>
-  <si>
-    <t>ESTHER ARISBETH</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -513,7 +522,7 @@
         <v>25</v>
       </c>
       <c r="G2">
-        <v>71.43000000000001</v>
+        <v>69.44</v>
       </c>
       <c r="H2">
         <v>8.5</v>
@@ -621,10 +630,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -732,10 +741,10 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -744,7 +753,7 @@
         <v>25</v>
       </c>
       <c r="G2">
-        <v>71.43000000000001</v>
+        <v>69.44</v>
       </c>
       <c r="H2">
         <v>8.5</v>
@@ -809,7 +818,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +859,10 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -867,16 +876,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920133</v>
+        <v>19330051920130</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -890,24 +899,70 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>20330051920179</v>
+        <v>19330051920130</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920179</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G4">
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Martínez López Miguel Ángel - Estadisticos 20211.xlsx
+++ b/docentes/Martínez López Miguel Ángel - Estadisticos 20211.xlsx
@@ -76,34 +76,34 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>REYES</t>
   </si>
   <si>
     <t>NAVARRO</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
     <t>GUERRA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>SARMIENTO</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>KAREN</t>
+  </si>
+  <si>
     <t>LUIS YAEL</t>
-  </si>
-  <si>
-    <t>KAREN</t>
   </si>
   <si>
     <t>ESTHER ARISBETH</t>
@@ -853,7 +853,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>20330051920156</v>
+        <v>19330051920130</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -865,10 +865,10 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -879,16 +879,16 @@
         <v>19330051920130</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920130</v>
+        <v>20330051920156</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -911,10 +911,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>6</v>
